--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee1\Documents\CIS565\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBC38E-274D-4CFB-A923-67102DBBD2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB5356-319A-44E4-B06E-4E701F6D3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{879C53E0-4180-43DA-B24E-145919DB4B8A}"/>
   </bookViews>
@@ -1900,13 +1900,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Elements</a:t>
+                  <a:t>Input Size (number</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Processed</a:t>
+                  <a:t> of i</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>nteger elements)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2271,7 +2274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$R$18</c:f>
+              <c:f>Sheet2!$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2326,7 +2329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$R$19:$R$27</c:f>
+              <c:f>Sheet2!$K$19:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2372,7 +2375,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$S$18</c:f>
+              <c:f>Sheet2!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2427,7 +2430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$S$19:$S$27</c:f>
+              <c:f>Sheet2!$L$19:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2473,7 +2476,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$T$18</c:f>
+              <c:f>Sheet2!$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2528,7 +2531,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$T$19:$T$27</c:f>
+              <c:f>Sheet2!$M$19:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2574,7 +2577,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$U$18</c:f>
+              <c:f>Sheet2!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2629,7 +2632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$U$19:$U$27</c:f>
+              <c:f>Sheet2!$N$19:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2675,7 +2678,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$V$18</c:f>
+              <c:f>Sheet2!$O$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2730,7 +2733,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$V$19:$V$27</c:f>
+              <c:f>Sheet2!$O$19:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2776,7 +2779,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$W$18</c:f>
+              <c:f>Sheet2!$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2831,7 +2834,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$W$19:$W$27</c:f>
+              <c:f>Sheet2!$P$19:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2892,6 +2895,36 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (number of integer elements)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3164,6 +3197,930 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm Completion Time vs. Input Size</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(lower is better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU No Scan POT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1,000,000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2,000,000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4,000,000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8,000,000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16,000,000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32,000,000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64,000,000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>128,000,000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>256,000,000</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$48:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.8639000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5322999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.246699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.836500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>292.91199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>597.62199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B0E-45ED-97FB-F1963863D493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU No Scan NPOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1,000,000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2,000,000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4,000,000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8,000,000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16,000,000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32,000,000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64,000,000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>128,000,000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>256,000,000</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$48:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.7265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7592999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.1557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.131499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.813499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.985399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317.75200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>591.53499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B0E-45ED-97FB-F1963863D493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU SCAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1,000,000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2,000,000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4,000,000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8,000,000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16,000,000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32,000,000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64,000,000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>128,000,000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>256,000,000</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$48:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.6432000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.553199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.669399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332.39699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>662.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1329.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B0E-45ED-97FB-F1963863D493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WE POT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1,000,000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2,000,000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4,000,000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8,000,000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16,000,000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32,000,000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64,000,000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>128,000,000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>256,000,000</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$48:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.8976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3497599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.91859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.103199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.473299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.8215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.407200000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169.005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>298.274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B0E-45ED-97FB-F1963863D493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WE NPOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1,000,000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2,000,000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4,000,000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8,000,000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16,000,000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32,000,000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64,000,000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>128,000,000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>256,000,000</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$48:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.77366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1500500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3230399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.074199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.104099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>266.70999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B0E-45ED-97FB-F1963863D493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1013068064"/>
+        <c:axId val="1013062656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1013068064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Size (number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>nteger</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> elements)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013062656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013062656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Completion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013068064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3284,6 +4241,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4832,20 +5829,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>430529</xdr:colOff>
+      <xdr:colOff>432433</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>126681</xdr:rowOff>
+      <xdr:rowOff>130491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4878,15 +6391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>183832</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>143826</xdr:rowOff>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>55244</xdr:rowOff>
+      <xdr:colOff>235268</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4914,15 +6427,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>522922</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>130492</xdr:rowOff>
+      <xdr:colOff>749617</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4942,6 +6455,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431481</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814D4AEA-78B0-464E-B267-2A1BA8C945C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5250,7 +6799,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5439,16 +6988,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD4552-D8A4-439E-9693-0B0F492501AE}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
@@ -5462,7 +7012,7 @@
     <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5487,23 +7037,8 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5532,7 +7067,7 @@
         <v>4.3583999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -5561,32 +7096,32 @@
         <v>8.1056000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -5614,43 +7149,28 @@
       <c r="I9">
         <v>5.2032000000000002E-2</v>
       </c>
-      <c r="K9">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L9">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="M9">
-        <v>5.3E-3</v>
-      </c>
-      <c r="N9">
-        <v>0.44313599999999997</v>
-      </c>
-      <c r="O9">
-        <v>0.373056</v>
-      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -5678,23 +7198,8 @@
       <c r="I14">
         <v>5.9072E-2</v>
       </c>
-      <c r="K14">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="L14">
-        <v>7.22E-2</v>
-      </c>
-      <c r="M14">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="N14">
-        <v>0.83161600000000002</v>
-      </c>
-      <c r="O14">
-        <v>0.65017599999999998</v>
-      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -5722,23 +7227,8 @@
       <c r="I15">
         <v>6.6271999999999998E-2</v>
       </c>
-      <c r="K15">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="L15">
-        <v>0.1489</v>
-      </c>
-      <c r="M15">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="N15">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="O15">
-        <v>0.56303999999999998</v>
-      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -5766,23 +7256,8 @@
       <c r="I16">
         <v>0.37856000000000001</v>
       </c>
-      <c r="K16">
-        <v>0.29239999999999999</v>
-      </c>
-      <c r="L16">
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="M16">
-        <v>0.75929999999999997</v>
-      </c>
-      <c r="N16">
-        <v>0.89004799999999995</v>
-      </c>
-      <c r="O16">
-        <v>0.85513600000000001</v>
-      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -5810,23 +7285,8 @@
       <c r="I17">
         <v>0.44281599999999999</v>
       </c>
-      <c r="K17">
-        <v>0.60219999999999996</v>
-      </c>
-      <c r="L17">
-        <v>0.60240000000000005</v>
-      </c>
-      <c r="M17">
-        <v>1.401</v>
-      </c>
-      <c r="N17">
-        <v>1.1789400000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.79644800000000004</v>
-      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -5854,41 +7314,26 @@
       <c r="I18">
         <v>0.57868799999999998</v>
       </c>
-      <c r="K18">
-        <v>1.1895</v>
-      </c>
-      <c r="L18">
-        <v>1.1841999999999999</v>
-      </c>
-      <c r="M18">
-        <v>2.7894000000000001</v>
-      </c>
-      <c r="N18">
-        <v>1.2155499999999999</v>
-      </c>
-      <c r="O18">
-        <v>1.0928</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="K18" t="s">
         <v>2</v>
       </c>
-      <c r="S18" t="s">
+      <c r="L18" t="s">
         <v>3</v>
       </c>
-      <c r="T18" t="s">
+      <c r="M18" t="s">
         <v>6</v>
       </c>
-      <c r="U18" t="s">
+      <c r="N18" t="s">
         <v>5</v>
       </c>
-      <c r="V18" t="s">
+      <c r="O18" t="s">
         <v>11</v>
       </c>
-      <c r="W18" t="s">
+      <c r="P18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -5917,46 +7362,31 @@
         <v>0.49952000000000002</v>
       </c>
       <c r="K19">
-        <v>2.8639000000000001</v>
-      </c>
-      <c r="L19">
-        <v>2.7265000000000001</v>
-      </c>
-      <c r="M19">
-        <v>5.6432000000000002</v>
-      </c>
-      <c r="N19">
-        <v>1.8976</v>
-      </c>
-      <c r="O19">
-        <v>1.77366</v>
-      </c>
-      <c r="R19">
         <f>B19-D19</f>
         <v>0.86509600000000009</v>
       </c>
-      <c r="S19">
+      <c r="L19">
         <f>C19-E19</f>
         <v>0.64798800000000001</v>
       </c>
-      <c r="T19">
+      <c r="M19">
         <f>B19-F19</f>
         <v>0.47507999999999995</v>
       </c>
-      <c r="U19">
+      <c r="N19">
         <f>C19-G19</f>
         <v>0.28539999999999988</v>
       </c>
-      <c r="V19">
+      <c r="O19">
         <f>B19-H19</f>
         <v>1.0607120000000001</v>
       </c>
-      <c r="W19">
+      <c r="P19">
         <f>C19-I19</f>
         <v>1.01298</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -5985,46 +7415,31 @@
         <v>0.70313599999999998</v>
       </c>
       <c r="K20">
-        <v>4.8280000000000003</v>
+        <f>B20-D20</f>
+        <v>1.2685400000000002</v>
       </c>
       <c r="L20">
-        <v>4.7592999999999996</v>
+        <f>C20-E20</f>
+        <v>1.329</v>
       </c>
       <c r="M20">
-        <v>10.8453</v>
+        <f>B20-F20</f>
+        <v>0.75401000000000007</v>
       </c>
       <c r="N20">
-        <v>3.3497599999999998</v>
+        <f>C20-G20</f>
+        <v>0.80781999999999998</v>
       </c>
       <c r="O20">
-        <v>4.1500500000000002</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ref="R20:R27" si="0">B20-D20</f>
-        <v>1.2685400000000002</v>
-      </c>
-      <c r="S20">
-        <f t="shared" ref="S20:S27" si="1">C20-E20</f>
-        <v>1.329</v>
-      </c>
-      <c r="T20">
-        <f t="shared" ref="T20:T27" si="2">B20-F20</f>
-        <v>0.75401000000000007</v>
-      </c>
-      <c r="U20">
-        <f t="shared" ref="U20:U27" si="3">C20-G20</f>
-        <v>0.80781999999999998</v>
-      </c>
-      <c r="V20">
-        <f t="shared" ref="V20:V27" si="4">B20-H20</f>
+        <f>B20-H20</f>
         <v>2.2121200000000001</v>
       </c>
-      <c r="W20">
-        <f t="shared" ref="W20:W27" si="5">C20-I20</f>
+      <c r="P20">
+        <f>C20-I20</f>
         <v>2.4315639999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -6053,46 +7468,31 @@
         <v>0.81046399999999996</v>
       </c>
       <c r="K21">
-        <v>9.5322999999999993</v>
+        <f>B21-D21</f>
+        <v>2.63964</v>
       </c>
       <c r="L21">
-        <v>12.1557</v>
+        <f>C21-E21</f>
+        <v>2.5257000000000001</v>
       </c>
       <c r="M21">
-        <v>22.173999999999999</v>
+        <f>B21-F21</f>
+        <v>1.5800900000000002</v>
       </c>
       <c r="N21">
-        <v>6.91859</v>
+        <f>C21-G21</f>
+        <v>1.4097300000000006</v>
       </c>
       <c r="O21">
-        <v>6.3230399999999998</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>2.63964</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="1"/>
-        <v>2.5257000000000001</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="2"/>
-        <v>1.5800900000000002</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="3"/>
-        <v>1.4097300000000006</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="4"/>
+        <f>B21-H21</f>
         <v>5.1786519999999996</v>
       </c>
-      <c r="W21">
-        <f t="shared" si="5"/>
+      <c r="P21">
+        <f>C21-I21</f>
         <v>5.2279360000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
@@ -6121,46 +7521,31 @@
         <v>0.90540799999999999</v>
       </c>
       <c r="K22">
-        <v>18.8567</v>
+        <f>B22-D22</f>
+        <v>5.3308799999999996</v>
       </c>
       <c r="L22">
-        <v>19.131499999999999</v>
+        <f>C22-E22</f>
+        <v>4.2549399999999995</v>
       </c>
       <c r="M22">
-        <v>43.553199999999997</v>
+        <f>B22-F22</f>
+        <v>3.4588800000000006</v>
       </c>
       <c r="N22">
-        <v>12.103199999999999</v>
+        <f>C22-G22</f>
+        <v>1.7103000000000002</v>
       </c>
       <c r="O22">
-        <v>12.074199999999999</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>5.3308799999999996</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="1"/>
-        <v>4.2549399999999995</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="2"/>
-        <v>3.4588800000000006</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="3"/>
-        <v>1.7103000000000002</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
+        <f>B22-H22</f>
         <v>10.971299999999999</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="5"/>
+      <c r="P22">
+        <f>C22-I22</f>
         <v>11.506492</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -6189,46 +7574,31 @@
         <v>1.23082</v>
       </c>
       <c r="K23">
-        <v>37.246699999999997</v>
+        <f>B23-D23</f>
+        <v>9.9771000000000001</v>
       </c>
       <c r="L23">
-        <v>38.813499999999998</v>
+        <f>C23-E23</f>
+        <v>10.3149</v>
       </c>
       <c r="M23">
-        <v>85.669399999999996</v>
+        <f>B23-F23</f>
+        <v>6.7984000000000009</v>
       </c>
       <c r="N23">
-        <v>20.473299999999998</v>
+        <f>C23-G23</f>
+        <v>7.7591999999999999</v>
       </c>
       <c r="O23">
-        <v>21.141999999999999</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>9.9771000000000001</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="1"/>
-        <v>10.3149</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="2"/>
-        <v>6.7984000000000009</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="3"/>
-        <v>7.7591999999999999</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="4"/>
+        <f>B23-H23</f>
         <v>23.305990000000001</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="5"/>
+      <c r="P23">
+        <f>C23-I23</f>
         <v>23.469279999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -6257,46 +7627,31 @@
         <v>1.8416600000000001</v>
       </c>
       <c r="K24">
-        <v>74.836500000000001</v>
+        <f>B24-D24</f>
+        <v>17.888000000000002</v>
       </c>
       <c r="L24">
-        <v>73.985399999999998</v>
+        <f>C24-E24</f>
+        <v>19.617899999999999</v>
       </c>
       <c r="M24">
-        <v>166.61199999999999</v>
+        <f>B24-F24</f>
+        <v>24.0137</v>
       </c>
       <c r="N24">
-        <v>30.8215</v>
+        <f>C24-G24</f>
+        <v>25.786199999999997</v>
       </c>
       <c r="O24">
-        <v>31.104099999999999</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>17.888000000000002</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="1"/>
-        <v>19.617899999999999</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="2"/>
-        <v>24.0137</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="3"/>
-        <v>25.786199999999997</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="4"/>
+        <f>B24-H24</f>
         <v>46.851419999999997</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="5"/>
+      <c r="P24">
+        <f>C24-I24</f>
         <v>47.875540000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -6325,46 +7680,31 @@
         <v>2.72403</v>
       </c>
       <c r="K25">
-        <v>153.11099999999999</v>
+        <f>B25-D25</f>
+        <v>33.117699999999992</v>
       </c>
       <c r="L25">
-        <v>147.92599999999999</v>
+        <f>C25-E25</f>
+        <v>45.434899999999999</v>
       </c>
       <c r="M25">
-        <v>332.39699999999999</v>
+        <f>B25-F25</f>
+        <v>52.21159999999999</v>
       </c>
       <c r="N25">
-        <v>99.407200000000003</v>
+        <f>C25-G25</f>
+        <v>53.7898</v>
       </c>
       <c r="O25">
-        <v>62.305</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>33.117699999999992</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="1"/>
-        <v>45.434899999999999</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="2"/>
-        <v>52.21159999999999</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="3"/>
-        <v>53.7898</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="4"/>
+        <f>B25-H25</f>
         <v>93.960099999999997</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="5"/>
+      <c r="P25">
+        <f>C25-I25</f>
         <v>96.650170000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -6393,46 +7733,31 @@
         <v>4.8019499999999997</v>
       </c>
       <c r="K26">
-        <v>292.91199999999998</v>
+        <f>B26-D26</f>
+        <v>90.553000000000011</v>
       </c>
       <c r="L26">
-        <v>317.75200000000001</v>
+        <f>C26-E26</f>
+        <v>80.655000000000001</v>
       </c>
       <c r="M26">
-        <v>662.70299999999997</v>
+        <f>B26-F26</f>
+        <v>112.48410000000001</v>
       </c>
       <c r="N26">
-        <v>169.005</v>
+        <f>C26-G26</f>
+        <v>96.299300000000002</v>
       </c>
       <c r="O26">
-        <v>131.61500000000001</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>90.553000000000011</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="1"/>
-        <v>80.655000000000001</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="2"/>
-        <v>112.48410000000001</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="3"/>
-        <v>96.299300000000002</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
+        <f>B26-H26</f>
         <v>206.18130000000002</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="5"/>
+      <c r="P26">
+        <f>C26-I26</f>
         <v>189.19905</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
@@ -6461,43 +7786,400 @@
         <v>8.7574100000000001</v>
       </c>
       <c r="K27">
+        <f>B27-D27</f>
+        <v>148.72799999999998</v>
+      </c>
+      <c r="L27">
+        <f>C27-E27</f>
+        <v>144.68499999999997</v>
+      </c>
+      <c r="M27">
+        <f>B27-F27</f>
+        <v>179.83499999999998</v>
+      </c>
+      <c r="N27">
+        <f>C27-G27</f>
+        <v>174.43499999999997</v>
+      </c>
+      <c r="O27">
+        <f>B27-H27</f>
+        <v>377.33499999999998</v>
+      </c>
+      <c r="P27">
+        <f>C27-I27</f>
+        <v>372.88558999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C38">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D38">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E38">
+        <v>0.44313599999999997</v>
+      </c>
+      <c r="F38">
+        <v>0.373056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="C43">
+        <v>7.22E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.83161600000000002</v>
+      </c>
+      <c r="F43">
+        <v>0.65017599999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.1489</v>
+      </c>
+      <c r="D44">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E44">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F44">
+        <v>0.56303999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="E45">
+        <v>0.89004799999999995</v>
+      </c>
+      <c r="F45">
+        <v>0.85513600000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="C46">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="D46">
+        <v>1.401</v>
+      </c>
+      <c r="E46">
+        <v>1.1789400000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.79644800000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>1.1895</v>
+      </c>
+      <c r="C47">
+        <v>1.1841999999999999</v>
+      </c>
+      <c r="D47">
+        <v>2.7894000000000001</v>
+      </c>
+      <c r="E47">
+        <v>1.2155499999999999</v>
+      </c>
+      <c r="F47">
+        <v>1.0928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>2.8639000000000001</v>
+      </c>
+      <c r="C48">
+        <v>2.7265000000000001</v>
+      </c>
+      <c r="D48">
+        <v>5.6432000000000002</v>
+      </c>
+      <c r="E48">
+        <v>1.8976</v>
+      </c>
+      <c r="F48">
+        <v>1.77366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="C49">
+        <v>4.7592999999999996</v>
+      </c>
+      <c r="D49">
+        <v>10.8453</v>
+      </c>
+      <c r="E49">
+        <v>3.3497599999999998</v>
+      </c>
+      <c r="F49">
+        <v>4.1500500000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>9.5322999999999993</v>
+      </c>
+      <c r="C50">
+        <v>12.1557</v>
+      </c>
+      <c r="D50">
+        <v>22.173999999999999</v>
+      </c>
+      <c r="E50">
+        <v>6.91859</v>
+      </c>
+      <c r="F50">
+        <v>6.3230399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>18.8567</v>
+      </c>
+      <c r="C51">
+        <v>19.131499999999999</v>
+      </c>
+      <c r="D51">
+        <v>43.553199999999997</v>
+      </c>
+      <c r="E51">
+        <v>12.103199999999999</v>
+      </c>
+      <c r="F51">
+        <v>12.074199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>37.246699999999997</v>
+      </c>
+      <c r="C52">
+        <v>38.813499999999998</v>
+      </c>
+      <c r="D52">
+        <v>85.669399999999996</v>
+      </c>
+      <c r="E52">
+        <v>20.473299999999998</v>
+      </c>
+      <c r="F52">
+        <v>21.141999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>74.836500000000001</v>
+      </c>
+      <c r="C53">
+        <v>73.985399999999998</v>
+      </c>
+      <c r="D53">
+        <v>166.61199999999999</v>
+      </c>
+      <c r="E53">
+        <v>30.8215</v>
+      </c>
+      <c r="F53">
+        <v>31.104099999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>153.11099999999999</v>
+      </c>
+      <c r="C54">
+        <v>147.92599999999999</v>
+      </c>
+      <c r="D54">
+        <v>332.39699999999999</v>
+      </c>
+      <c r="E54">
+        <v>99.407200000000003</v>
+      </c>
+      <c r="F54">
+        <v>62.305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>292.91199999999998</v>
+      </c>
+      <c r="C55">
+        <v>317.75200000000001</v>
+      </c>
+      <c r="D55">
+        <v>662.70299999999997</v>
+      </c>
+      <c r="E55">
+        <v>169.005</v>
+      </c>
+      <c r="F55">
+        <v>131.61500000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56">
         <v>597.62199999999996</v>
       </c>
-      <c r="L27">
+      <c r="C56">
         <v>591.53499999999997</v>
       </c>
-      <c r="M27">
+      <c r="D56">
         <v>1329.41</v>
       </c>
-      <c r="N27">
+      <c r="E56">
         <v>298.274</v>
       </c>
-      <c r="O27">
+      <c r="F56">
         <v>266.70999999999998</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>148.72799999999998</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="1"/>
-        <v>144.68499999999997</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="2"/>
-        <v>179.83499999999998</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="3"/>
-        <v>174.43499999999997</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="4"/>
-        <v>377.33499999999998</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="5"/>
-        <v>372.88558999999998</v>
       </c>
     </row>
   </sheetData>
